--- a/database/industries/siman/sekhouz/product/yearly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/yearly_seprated.xlsx
@@ -206,6 +206,11 @@
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -233,6 +238,21 @@
       <c r="I1" s="2">
         <v/>
       </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
+      <c r="N1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -261,6 +281,21 @@
       <c r="I2" s="2">
         <v/>
       </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
+      <c r="N2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="5" t="inlineStr">
@@ -289,6 +324,21 @@
       <c r="I3" s="2">
         <v/>
       </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
+      <c r="N3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -315,6 +365,21 @@
       <c r="I4" s="2">
         <v/>
       </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
+      <c r="N4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="6" t="inlineStr">
@@ -343,6 +408,21 @@
       <c r="I5" s="6">
         <v/>
       </c>
+      <c r="J5" s="6">
+        <v/>
+      </c>
+      <c r="K5" s="6">
+        <v/>
+      </c>
+      <c r="L5" s="6">
+        <v/>
+      </c>
+      <c r="M5" s="6">
+        <v/>
+      </c>
+      <c r="N5" s="6">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="7" t="inlineStr">
@@ -371,6 +451,21 @@
       <c r="I6" s="6">
         <v/>
       </c>
+      <c r="J6" s="6">
+        <v/>
+      </c>
+      <c r="K6" s="6">
+        <v/>
+      </c>
+      <c r="L6" s="6">
+        <v/>
+      </c>
+      <c r="M6" s="6">
+        <v/>
+      </c>
+      <c r="N6" s="6">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -397,6 +492,21 @@
       <c r="I7" s="2">
         <v/>
       </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
+      <c r="N7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="9" t="inlineStr">
@@ -412,25 +522,50 @@
       </c>
       <c r="E8" s="8" t="inlineStr">
         <is>
+          <t>دوازده ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
           <t>دوازده ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="K8" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="L8" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="M8" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="I8" s="8" t="inlineStr">
+      <c r="N8" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1400/12</t>
         </is>
@@ -461,6 +596,21 @@
       <c r="I9" s="2">
         <v/>
       </c>
+      <c r="J9" s="2">
+        <v/>
+      </c>
+      <c r="K9" s="2">
+        <v/>
+      </c>
+      <c r="L9" s="2">
+        <v/>
+      </c>
+      <c r="M9" s="2">
+        <v/>
+      </c>
+      <c r="N9" s="2">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="10" t="inlineStr">
@@ -489,6 +639,21 @@
       <c r="I10" s="11">
         <v/>
       </c>
+      <c r="J10" s="11">
+        <v/>
+      </c>
+      <c r="K10" s="11">
+        <v/>
+      </c>
+      <c r="L10" s="11">
+        <v/>
+      </c>
+      <c r="M10" s="11">
+        <v/>
+      </c>
+      <c r="N10" s="11">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="12" t="inlineStr">
@@ -524,7 +689,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" s="13">
         <v>0</v>
       </c>
     </row>
@@ -562,7 +752,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" s="15">
         <v>0</v>
       </c>
     </row>
@@ -585,16 +800,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" s="13">
         <v>1121264</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1025998</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1413839</v>
       </c>
-      <c r="I13" s="13" t="inlineStr">
+      <c r="N13" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -619,16 +859,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" s="15">
         <v>198875</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>446914</v>
       </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15" t="inlineStr">
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -668,7 +933,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" s="13">
         <v>1388336</v>
       </c>
     </row>
@@ -688,15 +978,30 @@
         <v>0</v>
       </c>
       <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
         <v>1320139</v>
       </c>
-      <c r="G16" s="17">
+      <c r="L16" s="17">
         <v>1472912</v>
       </c>
-      <c r="H16" s="17">
+      <c r="M16" s="17">
         <v>1413839</v>
       </c>
-      <c r="I16" s="17">
+      <c r="N16" s="17">
         <v>1388336</v>
       </c>
     </row>
@@ -727,6 +1032,21 @@
       <c r="I17" s="11">
         <v/>
       </c>
+      <c r="J17" s="11">
+        <v/>
+      </c>
+      <c r="K17" s="11">
+        <v/>
+      </c>
+      <c r="L17" s="11">
+        <v/>
+      </c>
+      <c r="M17" s="11">
+        <v/>
+      </c>
+      <c r="N17" s="11">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="12" t="inlineStr">
@@ -747,16 +1067,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" s="13">
         <v>207845</v>
       </c>
-      <c r="G18" s="13">
+      <c r="L18" s="13">
         <v>935776</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>776312</v>
       </c>
-      <c r="I18" s="13" t="inlineStr">
+      <c r="N18" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -781,16 +1126,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" s="15">
         <v>213275</v>
       </c>
-      <c r="G19" s="15">
+      <c r="L19" s="15">
         <v>311994</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>281860</v>
       </c>
-      <c r="I19" s="15" t="inlineStr">
+      <c r="N19" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -830,7 +1200,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N20" s="13">
         <v>1052242</v>
       </c>
     </row>
@@ -850,15 +1245,30 @@
         <v>0</v>
       </c>
       <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
         <v>421120</v>
       </c>
-      <c r="G21" s="17">
+      <c r="L21" s="17">
         <v>1247770</v>
       </c>
-      <c r="H21" s="17">
+      <c r="M21" s="17">
         <v>1058172</v>
       </c>
-      <c r="I21" s="17">
+      <c r="N21" s="17">
         <v>1052242</v>
       </c>
     </row>
@@ -889,6 +1299,21 @@
       <c r="I22" s="19">
         <v/>
       </c>
+      <c r="J22" s="19">
+        <v/>
+      </c>
+      <c r="K22" s="19">
+        <v/>
+      </c>
+      <c r="L22" s="19">
+        <v/>
+      </c>
+      <c r="M22" s="19">
+        <v/>
+      </c>
+      <c r="N22" s="19">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="20" t="inlineStr">
@@ -917,6 +1342,21 @@
       <c r="I23" s="21">
         <v>0</v>
       </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="16" t="inlineStr">
@@ -952,7 +1392,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N24" s="17">
         <v>0</v>
       </c>
     </row>
@@ -975,16 +1440,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0</v>
+      <c r="F25" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I25" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1007,16 +1497,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I26" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1038,15 +1553,30 @@
         <v>0</v>
       </c>
       <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="21">
         <v>1741259</v>
       </c>
-      <c r="G27" s="21">
+      <c r="L27" s="21">
         <v>2720682</v>
       </c>
-      <c r="H27" s="21">
+      <c r="M27" s="21">
         <v>2472011</v>
       </c>
-      <c r="I27" s="21">
+      <c r="N27" s="21">
         <v>2440578</v>
       </c>
     </row>
@@ -1075,6 +1605,21 @@
       <c r="I28" s="2">
         <v/>
       </c>
+      <c r="J28" s="2">
+        <v/>
+      </c>
+      <c r="K28" s="2">
+        <v/>
+      </c>
+      <c r="L28" s="2">
+        <v/>
+      </c>
+      <c r="M28" s="2">
+        <v/>
+      </c>
+      <c r="N28" s="2">
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="2">
@@ -1101,6 +1646,21 @@
       <c r="I29" s="2">
         <v/>
       </c>
+      <c r="J29" s="2">
+        <v/>
+      </c>
+      <c r="K29" s="2">
+        <v/>
+      </c>
+      <c r="L29" s="2">
+        <v/>
+      </c>
+      <c r="M29" s="2">
+        <v/>
+      </c>
+      <c r="N29" s="2">
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="B30" s="2">
@@ -1127,6 +1687,21 @@
       <c r="I30" s="2">
         <v/>
       </c>
+      <c r="J30" s="2">
+        <v/>
+      </c>
+      <c r="K30" s="2">
+        <v/>
+      </c>
+      <c r="L30" s="2">
+        <v/>
+      </c>
+      <c r="M30" s="2">
+        <v/>
+      </c>
+      <c r="N30" s="2">
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="9" t="inlineStr">
@@ -1142,25 +1717,50 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
+          <t>دوازده ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="H31" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="J31" s="8" t="inlineStr">
+        <is>
           <t>دوازده ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="K31" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="G31" s="8" t="inlineStr">
+      <c r="L31" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="H31" s="8" t="inlineStr">
+      <c r="M31" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="I31" s="8" t="inlineStr">
+      <c r="N31" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1400/12</t>
         </is>
@@ -1191,6 +1791,21 @@
       <c r="I32" s="2">
         <v/>
       </c>
+      <c r="J32" s="2">
+        <v/>
+      </c>
+      <c r="K32" s="2">
+        <v/>
+      </c>
+      <c r="L32" s="2">
+        <v/>
+      </c>
+      <c r="M32" s="2">
+        <v/>
+      </c>
+      <c r="N32" s="2">
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="B33" s="10" t="inlineStr">
@@ -1219,6 +1834,21 @@
       <c r="I33" s="11">
         <v/>
       </c>
+      <c r="J33" s="11">
+        <v/>
+      </c>
+      <c r="K33" s="11">
+        <v/>
+      </c>
+      <c r="L33" s="11">
+        <v/>
+      </c>
+      <c r="M33" s="11">
+        <v/>
+      </c>
+      <c r="N33" s="11">
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="12" t="inlineStr">
@@ -1254,7 +1884,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N34" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1947,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L35" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N35" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1315,16 +1995,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="13">
         <v>1618626</v>
       </c>
-      <c r="G36" s="13">
+      <c r="L36" s="13">
         <v>1950996</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>3497786</v>
       </c>
-      <c r="I36" s="13" t="inlineStr">
+      <c r="N36" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1349,16 +2054,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="15">
         <v>239477</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>586378</v>
       </c>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-      <c r="I37" s="15" t="inlineStr">
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1398,7 +2128,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L38" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N38" s="13">
         <v>5955837</v>
       </c>
     </row>
@@ -1418,15 +2173,30 @@
         <v>0</v>
       </c>
       <c r="F39" s="17">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
         <v>1858103</v>
       </c>
-      <c r="G39" s="17">
+      <c r="L39" s="17">
         <v>2537374</v>
       </c>
-      <c r="H39" s="17">
+      <c r="M39" s="17">
         <v>3497786</v>
       </c>
-      <c r="I39" s="17">
+      <c r="N39" s="17">
         <v>5955837</v>
       </c>
     </row>
@@ -1457,6 +2227,21 @@
       <c r="I40" s="11">
         <v/>
       </c>
+      <c r="J40" s="11">
+        <v/>
+      </c>
+      <c r="K40" s="11">
+        <v/>
+      </c>
+      <c r="L40" s="11">
+        <v/>
+      </c>
+      <c r="M40" s="11">
+        <v/>
+      </c>
+      <c r="N40" s="11">
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="B41" s="12" t="inlineStr">
@@ -1477,16 +2262,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="13">
         <v>429479</v>
       </c>
-      <c r="G41" s="13">
+      <c r="L41" s="13">
         <v>1650182</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>2837744</v>
       </c>
-      <c r="I41" s="13" t="inlineStr">
+      <c r="N41" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1511,16 +2321,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K42" s="15">
         <v>524450</v>
       </c>
-      <c r="G42" s="15">
+      <c r="L42" s="15">
         <v>990399</v>
       </c>
-      <c r="H42" s="15">
+      <c r="M42" s="15">
         <v>1748218</v>
       </c>
-      <c r="I42" s="15" t="inlineStr">
+      <c r="N42" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1560,7 +2395,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K43" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L43" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M43" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N43" s="13">
         <v>6868280</v>
       </c>
     </row>
@@ -1580,15 +2440,30 @@
         <v>0</v>
       </c>
       <c r="F44" s="17">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="17">
         <v>953929</v>
       </c>
-      <c r="G44" s="17">
+      <c r="L44" s="17">
         <v>2640581</v>
       </c>
-      <c r="H44" s="17">
+      <c r="M44" s="17">
         <v>4585962</v>
       </c>
-      <c r="I44" s="17">
+      <c r="N44" s="17">
         <v>6868280</v>
       </c>
     </row>
@@ -1619,6 +2494,21 @@
       <c r="I45" s="19">
         <v/>
       </c>
+      <c r="J45" s="19">
+        <v/>
+      </c>
+      <c r="K45" s="19">
+        <v/>
+      </c>
+      <c r="L45" s="19">
+        <v/>
+      </c>
+      <c r="M45" s="19">
+        <v/>
+      </c>
+      <c r="N45" s="19">
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="20" t="inlineStr">
@@ -1647,6 +2537,21 @@
       <c r="I46" s="21">
         <v>0</v>
       </c>
+      <c r="J46" s="21">
+        <v>0</v>
+      </c>
+      <c r="K46" s="21">
+        <v>0</v>
+      </c>
+      <c r="L46" s="21">
+        <v>0</v>
+      </c>
+      <c r="M46" s="21">
+        <v>0</v>
+      </c>
+      <c r="N46" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="16" t="inlineStr">
@@ -1682,7 +2587,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M47" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N47" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1705,16 +2635,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F48" s="21">
-        <v>0</v>
-      </c>
-      <c r="G48" s="21">
-        <v>0</v>
-      </c>
-      <c r="H48" s="21">
-        <v>0</v>
+      <c r="F48" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I48" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" s="21">
+        <v>0</v>
+      </c>
+      <c r="L48" s="21">
+        <v>0</v>
+      </c>
+      <c r="M48" s="21">
+        <v>0</v>
+      </c>
+      <c r="N48" s="21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1739,16 +2694,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17">
-        <v>0</v>
+      <c r="F49" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I49" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" s="17">
+        <v>0</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1770,15 +2750,30 @@
         <v>0</v>
       </c>
       <c r="F50" s="21">
+        <v>0</v>
+      </c>
+      <c r="G50" s="21">
+        <v>0</v>
+      </c>
+      <c r="H50" s="21">
+        <v>0</v>
+      </c>
+      <c r="I50" s="21">
+        <v>0</v>
+      </c>
+      <c r="J50" s="21">
+        <v>0</v>
+      </c>
+      <c r="K50" s="21">
         <v>2812032</v>
       </c>
-      <c r="G50" s="21">
+      <c r="L50" s="21">
         <v>5177955</v>
       </c>
-      <c r="H50" s="21">
+      <c r="M50" s="21">
         <v>8083748</v>
       </c>
-      <c r="I50" s="21">
+      <c r="N50" s="21">
         <v>12824117</v>
       </c>
     </row>
@@ -1807,6 +2802,21 @@
       <c r="I51" s="2">
         <v/>
       </c>
+      <c r="J51" s="2">
+        <v/>
+      </c>
+      <c r="K51" s="2">
+        <v/>
+      </c>
+      <c r="L51" s="2">
+        <v/>
+      </c>
+      <c r="M51" s="2">
+        <v/>
+      </c>
+      <c r="N51" s="2">
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="B52" s="2">
@@ -1833,6 +2843,21 @@
       <c r="I52" s="2">
         <v/>
       </c>
+      <c r="J52" s="2">
+        <v/>
+      </c>
+      <c r="K52" s="2">
+        <v/>
+      </c>
+      <c r="L52" s="2">
+        <v/>
+      </c>
+      <c r="M52" s="2">
+        <v/>
+      </c>
+      <c r="N52" s="2">
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="B53" s="2">
@@ -1859,6 +2884,21 @@
       <c r="I53" s="2">
         <v/>
       </c>
+      <c r="J53" s="2">
+        <v/>
+      </c>
+      <c r="K53" s="2">
+        <v/>
+      </c>
+      <c r="L53" s="2">
+        <v/>
+      </c>
+      <c r="M53" s="2">
+        <v/>
+      </c>
+      <c r="N53" s="2">
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="B54" s="9" t="inlineStr">
@@ -1874,25 +2914,50 @@
       </c>
       <c r="E54" s="8" t="inlineStr">
         <is>
+          <t>دوازده ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="F54" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="G54" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="H54" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="I54" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="J54" s="8" t="inlineStr">
+        <is>
           <t>دوازده ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="K54" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="G54" s="8" t="inlineStr">
+      <c r="L54" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="H54" s="8" t="inlineStr">
+      <c r="M54" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="I54" s="8" t="inlineStr">
+      <c r="N54" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1400/12</t>
         </is>
@@ -1923,6 +2988,21 @@
       <c r="I55" s="2">
         <v/>
       </c>
+      <c r="J55" s="2">
+        <v/>
+      </c>
+      <c r="K55" s="2">
+        <v/>
+      </c>
+      <c r="L55" s="2">
+        <v/>
+      </c>
+      <c r="M55" s="2">
+        <v/>
+      </c>
+      <c r="N55" s="2">
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="B56" s="10" t="inlineStr">
@@ -1951,6 +3031,21 @@
       <c r="I56" s="11">
         <v/>
       </c>
+      <c r="J56" s="11">
+        <v/>
+      </c>
+      <c r="K56" s="11">
+        <v/>
+      </c>
+      <c r="L56" s="11">
+        <v/>
+      </c>
+      <c r="M56" s="11">
+        <v/>
+      </c>
+      <c r="N56" s="11">
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="B57" s="12" t="inlineStr">
@@ -1986,7 +3081,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K57" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L57" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M57" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N57" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2024,7 +3144,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L58" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M58" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N58" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2047,16 +3192,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="13">
         <v>1443573</v>
       </c>
-      <c r="G59" s="13">
+      <c r="L59" s="13">
         <v>1901559</v>
       </c>
-      <c r="H59" s="13">
+      <c r="M59" s="13">
         <v>2473963</v>
       </c>
-      <c r="I59" s="13" t="inlineStr">
+      <c r="N59" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2081,16 +3251,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="15">
         <v>1204158</v>
       </c>
-      <c r="G60" s="15">
+      <c r="L60" s="15">
         <v>1312060</v>
       </c>
-      <c r="H60" s="15">
-        <v>0</v>
-      </c>
-      <c r="I60" s="15" t="inlineStr">
+      <c r="M60" s="15">
+        <v>0</v>
+      </c>
+      <c r="N60" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2130,7 +3325,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L61" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M61" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N61" s="13">
         <v>4289910</v>
       </c>
     </row>
@@ -2161,6 +3381,21 @@
       <c r="I62" s="11">
         <v/>
       </c>
+      <c r="J62" s="11">
+        <v/>
+      </c>
+      <c r="K62" s="11">
+        <v/>
+      </c>
+      <c r="L62" s="11">
+        <v/>
+      </c>
+      <c r="M62" s="11">
+        <v/>
+      </c>
+      <c r="N62" s="11">
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="B63" s="12" t="inlineStr">
@@ -2181,16 +3416,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="13">
         <v>2066343</v>
       </c>
-      <c r="G63" s="13">
+      <c r="L63" s="13">
         <v>1763437</v>
       </c>
-      <c r="H63" s="13">
+      <c r="M63" s="13">
         <v>3655417</v>
       </c>
-      <c r="I63" s="13" t="inlineStr">
+      <c r="N63" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2215,16 +3475,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="15">
         <v>2459032</v>
       </c>
-      <c r="G64" s="15">
+      <c r="L64" s="15">
         <v>3174417</v>
       </c>
-      <c r="H64" s="15">
+      <c r="M64" s="15">
         <v>6202434</v>
       </c>
-      <c r="I64" s="15" t="inlineStr">
+      <c r="N64" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2264,7 +3549,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L65" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M65" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N65" s="13">
         <v>6527282</v>
       </c>
     </row>
@@ -2293,6 +3603,21 @@
       <c r="I66" s="2">
         <v/>
       </c>
+      <c r="J66" s="2">
+        <v/>
+      </c>
+      <c r="K66" s="2">
+        <v/>
+      </c>
+      <c r="L66" s="2">
+        <v/>
+      </c>
+      <c r="M66" s="2">
+        <v/>
+      </c>
+      <c r="N66" s="2">
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="B67" s="2">
@@ -2319,6 +3644,21 @@
       <c r="I67" s="2">
         <v/>
       </c>
+      <c r="J67" s="2">
+        <v/>
+      </c>
+      <c r="K67" s="2">
+        <v/>
+      </c>
+      <c r="L67" s="2">
+        <v/>
+      </c>
+      <c r="M67" s="2">
+        <v/>
+      </c>
+      <c r="N67" s="2">
+        <v/>
+      </c>
     </row>
     <row r="68">
       <c r="B68" s="2">
@@ -2345,6 +3685,21 @@
       <c r="I68" s="2">
         <v/>
       </c>
+      <c r="J68" s="2">
+        <v/>
+      </c>
+      <c r="K68" s="2">
+        <v/>
+      </c>
+      <c r="L68" s="2">
+        <v/>
+      </c>
+      <c r="M68" s="2">
+        <v/>
+      </c>
+      <c r="N68" s="2">
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="9" t="inlineStr">
@@ -2360,25 +3715,50 @@
       </c>
       <c r="E69" s="8" t="inlineStr">
         <is>
+          <t>دوازده ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="G69" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="H69" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="I69" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="J69" s="8" t="inlineStr">
+        <is>
           <t>دوازده ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="F69" s="8" t="inlineStr">
+      <c r="K69" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="G69" s="8" t="inlineStr">
+      <c r="L69" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="H69" s="8" t="inlineStr">
+      <c r="M69" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="I69" s="8" t="inlineStr">
+      <c r="N69" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1400/12</t>
         </is>
@@ -2409,6 +3789,21 @@
       <c r="I70" s="2">
         <v/>
       </c>
+      <c r="J70" s="2">
+        <v/>
+      </c>
+      <c r="K70" s="2">
+        <v/>
+      </c>
+      <c r="L70" s="2">
+        <v/>
+      </c>
+      <c r="M70" s="2">
+        <v/>
+      </c>
+      <c r="N70" s="2">
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="10" t="inlineStr">
@@ -2437,6 +3832,21 @@
       <c r="I71" s="11">
         <v/>
       </c>
+      <c r="J71" s="11">
+        <v/>
+      </c>
+      <c r="K71" s="11">
+        <v/>
+      </c>
+      <c r="L71" s="11">
+        <v/>
+      </c>
+      <c r="M71" s="11">
+        <v/>
+      </c>
+      <c r="N71" s="11">
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="12" t="inlineStr">
@@ -2472,7 +3882,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K72" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L72" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M72" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N72" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2510,7 +3945,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K73" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L73" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M73" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N73" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2533,16 +3993,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K74" s="13">
         <v>-1229132</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>-1587868</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>-2306102</v>
       </c>
-      <c r="I74" s="13" t="inlineStr">
+      <c r="N74" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2567,16 +4052,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K75" s="15">
         <v>-130198</v>
       </c>
-      <c r="G75" s="15">
+      <c r="L75" s="15">
         <v>-323964</v>
       </c>
-      <c r="H75" s="15">
-        <v>0</v>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
+      <c r="M75" s="15">
+        <v>0</v>
+      </c>
+      <c r="N75" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2616,7 +4126,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K76" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L76" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M76" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N76" s="13">
         <v>-3784349</v>
       </c>
     </row>
@@ -2636,15 +4171,30 @@
         <v>0</v>
       </c>
       <c r="F77" s="17">
+        <v>0</v>
+      </c>
+      <c r="G77" s="17">
+        <v>0</v>
+      </c>
+      <c r="H77" s="17">
+        <v>0</v>
+      </c>
+      <c r="I77" s="17">
+        <v>0</v>
+      </c>
+      <c r="J77" s="17">
+        <v>0</v>
+      </c>
+      <c r="K77" s="17">
         <v>-1359330</v>
       </c>
-      <c r="G77" s="17">
+      <c r="L77" s="17">
         <v>-1911832</v>
       </c>
-      <c r="H77" s="17">
+      <c r="M77" s="17">
         <v>-2306102</v>
       </c>
-      <c r="I77" s="17">
+      <c r="N77" s="17">
         <v>-3784349</v>
       </c>
     </row>
@@ -2675,6 +4225,21 @@
       <c r="I78" s="11">
         <v/>
       </c>
+      <c r="J78" s="11">
+        <v/>
+      </c>
+      <c r="K78" s="11">
+        <v/>
+      </c>
+      <c r="L78" s="11">
+        <v/>
+      </c>
+      <c r="M78" s="11">
+        <v/>
+      </c>
+      <c r="N78" s="11">
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="B79" s="12" t="inlineStr">
@@ -2695,16 +4260,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K79" s="13">
         <v>-144635</v>
       </c>
-      <c r="G79" s="13">
+      <c r="L79" s="13">
         <v>-690454</v>
       </c>
-      <c r="H79" s="13">
+      <c r="M79" s="13">
         <v>-964423</v>
       </c>
-      <c r="I79" s="13" t="inlineStr">
+      <c r="N79" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2729,16 +4319,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K80" s="15">
         <v>-165656</v>
       </c>
-      <c r="G80" s="15">
+      <c r="L80" s="15">
         <v>-482852</v>
       </c>
-      <c r="H80" s="15">
+      <c r="M80" s="15">
         <v>-519305</v>
       </c>
-      <c r="I80" s="15" t="inlineStr">
+      <c r="N80" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2778,7 +4393,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K81" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L81" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M81" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N81" s="13">
         <v>-2424403</v>
       </c>
     </row>
@@ -2798,15 +4438,30 @@
         <v>0</v>
       </c>
       <c r="F82" s="17">
+        <v>0</v>
+      </c>
+      <c r="G82" s="17">
+        <v>0</v>
+      </c>
+      <c r="H82" s="17">
+        <v>0</v>
+      </c>
+      <c r="I82" s="17">
+        <v>0</v>
+      </c>
+      <c r="J82" s="17">
+        <v>0</v>
+      </c>
+      <c r="K82" s="17">
         <v>-310291</v>
       </c>
-      <c r="G82" s="17">
+      <c r="L82" s="17">
         <v>-1173306</v>
       </c>
-      <c r="H82" s="17">
+      <c r="M82" s="17">
         <v>-1483728</v>
       </c>
-      <c r="I82" s="17">
+      <c r="N82" s="17">
         <v>-2424403</v>
       </c>
     </row>
@@ -2837,6 +4492,21 @@
       <c r="I83" s="19">
         <v/>
       </c>
+      <c r="J83" s="19">
+        <v/>
+      </c>
+      <c r="K83" s="19">
+        <v/>
+      </c>
+      <c r="L83" s="19">
+        <v/>
+      </c>
+      <c r="M83" s="19">
+        <v/>
+      </c>
+      <c r="N83" s="19">
+        <v/>
+      </c>
     </row>
     <row r="84">
       <c r="B84" s="20" t="inlineStr">
@@ -2865,6 +4535,21 @@
       <c r="I84" s="21">
         <v>0</v>
       </c>
+      <c r="J84" s="21">
+        <v>0</v>
+      </c>
+      <c r="K84" s="21">
+        <v>0</v>
+      </c>
+      <c r="L84" s="21">
+        <v>0</v>
+      </c>
+      <c r="M84" s="21">
+        <v>0</v>
+      </c>
+      <c r="N84" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" s="16" t="inlineStr">
@@ -2900,7 +4585,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J85" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K85" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L85" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M85" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N85" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2923,16 +4633,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F86" s="21">
-        <v>0</v>
-      </c>
-      <c r="G86" s="21">
-        <v>0</v>
-      </c>
-      <c r="H86" s="21">
-        <v>0</v>
+      <c r="F86" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I86" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J86" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K86" s="21">
+        <v>0</v>
+      </c>
+      <c r="L86" s="21">
+        <v>0</v>
+      </c>
+      <c r="M86" s="21">
+        <v>0</v>
+      </c>
+      <c r="N86" s="21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2957,16 +4692,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F87" s="17">
-        <v>0</v>
-      </c>
-      <c r="G87" s="17">
-        <v>0</v>
-      </c>
-      <c r="H87" s="17">
-        <v>0</v>
+      <c r="F87" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="I87" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J87" s="17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K87" s="17">
+        <v>0</v>
+      </c>
+      <c r="L87" s="17">
+        <v>0</v>
+      </c>
+      <c r="M87" s="17">
+        <v>0</v>
+      </c>
+      <c r="N87" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2988,15 +4748,30 @@
         <v>0</v>
       </c>
       <c r="F88" s="21">
+        <v>0</v>
+      </c>
+      <c r="G88" s="21">
+        <v>0</v>
+      </c>
+      <c r="H88" s="21">
+        <v>0</v>
+      </c>
+      <c r="I88" s="21">
+        <v>0</v>
+      </c>
+      <c r="J88" s="21">
+        <v>0</v>
+      </c>
+      <c r="K88" s="21">
         <v>-1669621</v>
       </c>
-      <c r="G88" s="21">
+      <c r="L88" s="21">
         <v>-3085138</v>
       </c>
-      <c r="H88" s="21">
+      <c r="M88" s="21">
         <v>-3789830</v>
       </c>
-      <c r="I88" s="21">
+      <c r="N88" s="21">
         <v>-6208752</v>
       </c>
     </row>
@@ -3025,6 +4800,21 @@
       <c r="I89" s="2">
         <v/>
       </c>
+      <c r="J89" s="2">
+        <v/>
+      </c>
+      <c r="K89" s="2">
+        <v/>
+      </c>
+      <c r="L89" s="2">
+        <v/>
+      </c>
+      <c r="M89" s="2">
+        <v/>
+      </c>
+      <c r="N89" s="2">
+        <v/>
+      </c>
     </row>
     <row r="90">
       <c r="B90" s="2">
@@ -3051,6 +4841,21 @@
       <c r="I90" s="2">
         <v/>
       </c>
+      <c r="J90" s="2">
+        <v/>
+      </c>
+      <c r="K90" s="2">
+        <v/>
+      </c>
+      <c r="L90" s="2">
+        <v/>
+      </c>
+      <c r="M90" s="2">
+        <v/>
+      </c>
+      <c r="N90" s="2">
+        <v/>
+      </c>
     </row>
     <row r="91">
       <c r="B91" s="2">
@@ -3077,6 +4882,21 @@
       <c r="I91" s="2">
         <v/>
       </c>
+      <c r="J91" s="2">
+        <v/>
+      </c>
+      <c r="K91" s="2">
+        <v/>
+      </c>
+      <c r="L91" s="2">
+        <v/>
+      </c>
+      <c r="M91" s="2">
+        <v/>
+      </c>
+      <c r="N91" s="2">
+        <v/>
+      </c>
     </row>
     <row r="92">
       <c r="B92" s="9" t="inlineStr">
@@ -3092,25 +4912,50 @@
       </c>
       <c r="E92" s="8" t="inlineStr">
         <is>
+          <t>دوازده ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="F92" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="G92" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="H92" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="I92" s="8" t="inlineStr">
+        <is>
+          <t>دوازده ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="J92" s="8" t="inlineStr">
+        <is>
           <t>دوازده ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="F92" s="8" t="inlineStr">
+      <c r="K92" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="G92" s="8" t="inlineStr">
+      <c r="L92" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="H92" s="8" t="inlineStr">
+      <c r="M92" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="I92" s="8" t="inlineStr">
+      <c r="N92" s="8" t="inlineStr">
         <is>
           <t>دوازده ماهه منتهی به 1400/12</t>
         </is>
@@ -3141,6 +4986,21 @@
       <c r="I93" s="2">
         <v/>
       </c>
+      <c r="J93" s="2">
+        <v/>
+      </c>
+      <c r="K93" s="2">
+        <v/>
+      </c>
+      <c r="L93" s="2">
+        <v/>
+      </c>
+      <c r="M93" s="2">
+        <v/>
+      </c>
+      <c r="N93" s="2">
+        <v/>
+      </c>
     </row>
     <row r="94">
       <c r="B94" s="10" t="inlineStr">
@@ -3169,6 +5029,21 @@
       <c r="I94" s="11">
         <v/>
       </c>
+      <c r="J94" s="11">
+        <v/>
+      </c>
+      <c r="K94" s="11">
+        <v/>
+      </c>
+      <c r="L94" s="11">
+        <v/>
+      </c>
+      <c r="M94" s="11">
+        <v/>
+      </c>
+      <c r="N94" s="11">
+        <v/>
+      </c>
     </row>
     <row r="95">
       <c r="B95" s="12" t="inlineStr">
@@ -3204,7 +5079,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J95" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K95" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L95" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M95" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N95" s="13">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +5142,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I96" s="15">
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J96" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K96" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L96" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M96" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N96" s="15">
         <v>0</v>
       </c>
     </row>
@@ -3265,16 +5190,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J97" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K97" s="13">
         <v>389494</v>
       </c>
-      <c r="G97" s="13">
+      <c r="L97" s="13">
         <v>363128</v>
       </c>
-      <c r="H97" s="13">
+      <c r="M97" s="13">
         <v>1191684</v>
       </c>
-      <c r="I97" s="13" t="inlineStr">
+      <c r="N97" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3299,16 +5249,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F98" s="15">
+      <c r="F98" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J98" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K98" s="15">
         <v>109279</v>
       </c>
-      <c r="G98" s="15">
+      <c r="L98" s="15">
         <v>262414</v>
       </c>
-      <c r="H98" s="15">
-        <v>0</v>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
+      <c r="M98" s="15">
+        <v>0</v>
+      </c>
+      <c r="N98" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3348,7 +5323,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J99" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K99" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L99" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M99" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N99" s="13">
         <v>2171488</v>
       </c>
     </row>
@@ -3368,15 +5368,30 @@
         <v>0</v>
       </c>
       <c r="F100" s="17">
+        <v>0</v>
+      </c>
+      <c r="G100" s="17">
+        <v>0</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0</v>
+      </c>
+      <c r="I100" s="17">
+        <v>0</v>
+      </c>
+      <c r="J100" s="17">
+        <v>0</v>
+      </c>
+      <c r="K100" s="17">
         <v>498773</v>
       </c>
-      <c r="G100" s="17">
+      <c r="L100" s="17">
         <v>625542</v>
       </c>
-      <c r="H100" s="17">
+      <c r="M100" s="17">
         <v>1191684</v>
       </c>
-      <c r="I100" s="17">
+      <c r="N100" s="17">
         <v>2171488</v>
       </c>
     </row>
@@ -3407,6 +5422,21 @@
       <c r="I101" s="11">
         <v/>
       </c>
+      <c r="J101" s="11">
+        <v/>
+      </c>
+      <c r="K101" s="11">
+        <v/>
+      </c>
+      <c r="L101" s="11">
+        <v/>
+      </c>
+      <c r="M101" s="11">
+        <v/>
+      </c>
+      <c r="N101" s="11">
+        <v/>
+      </c>
     </row>
     <row r="102">
       <c r="B102" s="12" t="inlineStr">
@@ -3427,16 +5457,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F102" s="13">
+      <c r="F102" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G102" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H102" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I102" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J102" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K102" s="13">
         <v>284844</v>
       </c>
-      <c r="G102" s="13">
+      <c r="L102" s="13">
         <v>959728</v>
       </c>
-      <c r="H102" s="13">
+      <c r="M102" s="13">
         <v>1873321</v>
       </c>
-      <c r="I102" s="13" t="inlineStr">
+      <c r="N102" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3461,16 +5516,41 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F103" s="15">
+      <c r="F103" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G103" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H103" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J103" s="15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K103" s="15">
         <v>358794</v>
       </c>
-      <c r="G103" s="15">
+      <c r="L103" s="15">
         <v>507547</v>
       </c>
-      <c r="H103" s="15">
+      <c r="M103" s="15">
         <v>1228913</v>
       </c>
-      <c r="I103" s="15" t="inlineStr">
+      <c r="N103" s="15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3510,7 +5590,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J104" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K104" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L104" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M104" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N104" s="13">
         <v>4443877</v>
       </c>
     </row>
@@ -3530,15 +5635,30 @@
         <v>0</v>
       </c>
       <c r="F105" s="17">
+        <v>0</v>
+      </c>
+      <c r="G105" s="17">
+        <v>0</v>
+      </c>
+      <c r="H105" s="17">
+        <v>0</v>
+      </c>
+      <c r="I105" s="17">
+        <v>0</v>
+      </c>
+      <c r="J105" s="17">
+        <v>0</v>
+      </c>
+      <c r="K105" s="17">
         <v>643638</v>
       </c>
-      <c r="G105" s="17">
+      <c r="L105" s="17">
         <v>1467275</v>
       </c>
-      <c r="H105" s="17">
+      <c r="M105" s="17">
         <v>3102234</v>
       </c>
-      <c r="I105" s="17">
+      <c r="N105" s="17">
         <v>4443877</v>
       </c>
     </row>
@@ -3569,6 +5689,21 @@
       <c r="I106" s="19">
         <v/>
       </c>
+      <c r="J106" s="19">
+        <v/>
+      </c>
+      <c r="K106" s="19">
+        <v/>
+      </c>
+      <c r="L106" s="19">
+        <v/>
+      </c>
+      <c r="M106" s="19">
+        <v/>
+      </c>
+      <c r="N106" s="19">
+        <v/>
+      </c>
     </row>
     <row r="107">
       <c r="B107" s="20" t="inlineStr">
@@ -3597,6 +5732,21 @@
       <c r="I107" s="21">
         <v>0</v>
       </c>
+      <c r="J107" s="21">
+        <v>0</v>
+      </c>
+      <c r="K107" s="21">
+        <v>0</v>
+      </c>
+      <c r="L107" s="21">
+        <v>0</v>
+      </c>
+      <c r="M107" s="21">
+        <v>0</v>
+      </c>
+      <c r="N107" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="B108" s="16" t="inlineStr">
@@ -3614,15 +5764,30 @@
         <v>0</v>
       </c>
       <c r="F108" s="17">
+        <v>0</v>
+      </c>
+      <c r="G108" s="17">
+        <v>0</v>
+      </c>
+      <c r="H108" s="17">
+        <v>0</v>
+      </c>
+      <c r="I108" s="17">
+        <v>0</v>
+      </c>
+      <c r="J108" s="17">
+        <v>0</v>
+      </c>
+      <c r="K108" s="17">
         <v>1142411</v>
       </c>
-      <c r="G108" s="17">
+      <c r="L108" s="17">
         <v>2092817</v>
       </c>
-      <c r="H108" s="17">
+      <c r="M108" s="17">
         <v>4293918</v>
       </c>
-      <c r="I108" s="17">
+      <c r="N108" s="17">
         <v>6615365</v>
       </c>
     </row>

--- a/database/industries/siman/sekhouz/product/yearly_seprated.xlsx
+++ b/database/industries/siman/sekhouz/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CB0DC-0B08-44F8-945E-299A4405A60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -165,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +359,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -370,7 +371,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -417,6 +418,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -452,6 +470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
